--- a/artfynd/A 59850-2022.xlsx
+++ b/artfynd/A 59850-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,6 +799,473 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112044333</v>
+      </c>
+      <c r="B3" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Stor Mpmerg, Kilen-Stor, Moberg, Leksand, Dlr</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>511613.7990622812</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6733639.811082688</v>
+      </c>
+      <c r="S3" t="n">
+        <v>25</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Minst 2</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Åke Sköld</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Åke Sköld</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112043031</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>511625.1419049087</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6733616.372369035</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Evalena Sköld</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Evalena Sköld</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112042940</v>
+      </c>
+      <c r="B5" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>511610.9043343531</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6733626.107665217</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Evalena Sköld</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Evalena Sköld, Åke Sköld</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112043158</v>
+      </c>
+      <c r="B6" t="n">
+        <v>95532</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>221945</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lycopodium annotinum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>511628.0588172724</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6733623.228879539</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Leksand</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Finns fläckvis i området</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Evalena Sköld</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Evalena Sköld, Åke Sköld</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 59850-2022.xlsx
+++ b/artfynd/A 59850-2022.xlsx
@@ -919,10 +919,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043031</v>
+        <v>112042940</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -935,21 +935,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>511625.1419049087</v>
+        <v>511610.9043343531</v>
       </c>
       <c r="R4" t="n">
-        <v>6733616.372369035</v>
+        <v>6733626.107665217</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1005,7 +1005,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,17 +1030,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112042940</v>
+        <v>112043158</v>
       </c>
       <c r="B5" t="n">
-        <v>98535</v>
+        <v>95532</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,21 +1053,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1073,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>511610.9043343531</v>
+        <v>511628.0588172724</v>
       </c>
       <c r="R5" t="n">
-        <v>6733626.107665217</v>
+        <v>6733623.228879539</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1108,7 +1113,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1118,12 +1123,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
+          <t>Finns fläckvis i området</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1150,10 +1155,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112043158</v>
+        <v>112043031</v>
       </c>
       <c r="B6" t="n">
-        <v>95532</v>
+        <v>90332</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1166,21 +1171,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221945</v>
+        <v>4769</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1191,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>511628.0588172724</v>
+        <v>511625.1419049087</v>
       </c>
       <c r="R6" t="n">
-        <v>6733623.228879539</v>
+        <v>6733616.372369035</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1226,7 +1231,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1236,12 +1241,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:51</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Finns fläckvis i området</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 59850-2022.xlsx
+++ b/artfynd/A 59850-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112044333</v>
+        <v>112043158</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>95532</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,42 +813,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stor Mpmerg, Kilen-Stor, Moberg, Leksand, Dlr</t>
+          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>511613.7990622812</v>
+        <v>511628.0588172724</v>
       </c>
       <c r="R3" t="n">
-        <v>6733639.811082688</v>
+        <v>6733623.228879539</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Minst 2</t>
+          <t>Finns fläckvis i området</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -907,22 +907,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112042940</v>
+        <v>112044333</v>
       </c>
       <c r="B4" t="n">
-        <v>98535</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,42 +931,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
+          <t>Stor Mpmerg, Kilen-Stor, Moberg, Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>511610.9043343531</v>
+        <v>511613.7990622812</v>
       </c>
       <c r="R4" t="n">
-        <v>6733626.107665217</v>
+        <v>6733639.811082688</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
+          <t>Minst 2</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,22 +1025,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112043158</v>
+        <v>112043031</v>
       </c>
       <c r="B5" t="n">
-        <v>95532</v>
+        <v>90332</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1053,21 +1053,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221945</v>
+        <v>4769</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>511628.0588172724</v>
+        <v>511625.1419049087</v>
       </c>
       <c r="R5" t="n">
-        <v>6733623.228879539</v>
+        <v>6733616.372369035</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1123,12 +1123,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:51</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Finns fläckvis i området</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1148,17 +1143,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112043031</v>
+        <v>112042940</v>
       </c>
       <c r="B6" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1171,21 +1166,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1196,10 +1191,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>511625.1419049087</v>
+        <v>511610.9043343531</v>
       </c>
       <c r="R6" t="n">
-        <v>6733616.372369035</v>
+        <v>6733626.107665217</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1231,7 +1226,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1241,7 +1236,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 59850-2022.xlsx
+++ b/artfynd/A 59850-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043158</v>
+        <v>112042452</v>
       </c>
       <c r="B3" t="n">
-        <v>95532</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,42 +813,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
+          <t>Stor Mpmerg, Kilen-Stor, Moberg, Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>511628.0588172724</v>
+        <v>511613.7990622812</v>
       </c>
       <c r="R3" t="n">
-        <v>6733623.228879539</v>
+        <v>6733639.811082688</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -887,12 +887,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:51</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Finns fläckvis i området</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -907,22 +902,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112044333</v>
+        <v>112042940</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>98535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,42 +926,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Stor Mpmerg, Kilen-Stor, Moberg, Leksand, Dlr</t>
+          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>511613.7990622812</v>
+        <v>511610.9043343531</v>
       </c>
       <c r="R4" t="n">
-        <v>6733639.811082688</v>
+        <v>6733626.107665217</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -995,7 +990,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1005,12 +1000,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Minst 2</t>
+          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,22 +1020,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112043031</v>
+        <v>112043158</v>
       </c>
       <c r="B5" t="n">
-        <v>90332</v>
+        <v>95532</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1053,21 +1048,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4769</v>
+        <v>221945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1078,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>511625.1419049087</v>
+        <v>511628.0588172724</v>
       </c>
       <c r="R5" t="n">
-        <v>6733616.372369035</v>
+        <v>6733623.228879539</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1113,7 +1108,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1123,7 +1118,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Finns fläckvis i området</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,17 +1143,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112042940</v>
+        <v>112043031</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1166,21 +1166,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>511610.9043343531</v>
+        <v>511625.1419049087</v>
       </c>
       <c r="R6" t="n">
-        <v>6733626.107665217</v>
+        <v>6733616.372369035</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1236,12 +1236,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:33</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1261,7 +1256,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 59850-2022.xlsx
+++ b/artfynd/A 59850-2022.xlsx
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>511613.7990622812</v>
+        <v>511614</v>
       </c>
       <c r="R3" t="n">
-        <v>6733639.811082688</v>
+        <v>6733640</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -875,19 +875,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -914,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112042940</v>
+        <v>112043031</v>
       </c>
       <c r="B4" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -955,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>511610.9043343531</v>
+        <v>511625</v>
       </c>
       <c r="R4" t="n">
-        <v>6733626.107665217</v>
+        <v>6733616</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -990,7 +980,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1000,12 +990,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:33</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,7 +1010,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -1073,10 +1058,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>511628.0588172724</v>
+        <v>511628</v>
       </c>
       <c r="R5" t="n">
-        <v>6733623.228879539</v>
+        <v>6733623</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1150,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112043031</v>
+        <v>112042940</v>
       </c>
       <c r="B6" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1166,21 +1151,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1191,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>511625.1419049087</v>
+        <v>511611</v>
       </c>
       <c r="R6" t="n">
-        <v>6733616.372369035</v>
+        <v>6733626</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1226,7 +1211,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1236,7 +1221,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1256,7 +1246,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 59850-2022.xlsx
+++ b/artfynd/A 59850-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112042452</v>
+        <v>112042940</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>98961</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,42 +813,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stor Mpmerg, Kilen-Stor, Moberg, Leksand, Dlr</t>
+          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>511614</v>
+        <v>511611</v>
       </c>
       <c r="R3" t="n">
-        <v>6733640</v>
+        <v>6733626</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -875,9 +875,24 @@
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -892,12 +907,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
@@ -907,7 +922,7 @@
         <v>112043031</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1020,7 +1035,7 @@
         <v>112043158</v>
       </c>
       <c r="B5" t="n">
-        <v>95532</v>
+        <v>95687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1135,10 +1150,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112042940</v>
+        <v>112044333</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>56430</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1147,42 +1162,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
+          <t>Stor Mpmerg, Kilen-Stor, Moberg, Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>511611</v>
+        <v>511614</v>
       </c>
       <c r="R6" t="n">
-        <v>6733626</v>
+        <v>6733640</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1209,24 +1224,14 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
+          <t>Minst 2</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1241,12 +1246,12 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 59850-2022.xlsx
+++ b/artfynd/A 59850-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112042940</v>
+        <v>112042452</v>
       </c>
       <c r="B3" t="n">
-        <v>98961</v>
+        <v>56430</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,42 +813,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
+          <t>Stor Mpmerg, Kilen-Stor, Moberg, Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>511611</v>
+        <v>511614</v>
       </c>
       <c r="R3" t="n">
-        <v>6733626</v>
+        <v>6733640</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -875,24 +875,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -907,12 +892,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
@@ -922,7 +907,7 @@
         <v>112043031</v>
       </c>
       <c r="B4" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1032,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112043158</v>
+        <v>112042940</v>
       </c>
       <c r="B5" t="n">
-        <v>95687</v>
+        <v>98980</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,21 +1033,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1073,10 +1058,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>511628</v>
+        <v>511611</v>
       </c>
       <c r="R5" t="n">
-        <v>6733623</v>
+        <v>6733626</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1108,7 +1093,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1118,12 +1103,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Finns fläckvis i området</t>
+          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1150,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112044333</v>
+        <v>112043158</v>
       </c>
       <c r="B6" t="n">
-        <v>56430</v>
+        <v>95701</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,42 +1147,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Stor Mpmerg, Kilen-Stor, Moberg, Leksand, Dlr</t>
+          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>511614</v>
+        <v>511628</v>
       </c>
       <c r="R6" t="n">
-        <v>6733640</v>
+        <v>6733623</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1224,14 +1209,24 @@
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Minst 2</t>
+          <t>Finns fläckvis i området</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1246,12 +1241,12 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 59850-2022.xlsx
+++ b/artfynd/A 59850-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112042452</v>
+        <v>112043158</v>
       </c>
       <c r="B3" t="n">
-        <v>56430</v>
+        <v>95701</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,42 +813,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stor Mpmerg, Kilen-Stor, Moberg, Leksand, Dlr</t>
+          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>511614</v>
+        <v>511628</v>
       </c>
       <c r="R3" t="n">
-        <v>6733640</v>
+        <v>6733623</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -875,9 +875,24 @@
           <t>2023-09-12</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Finns fläckvis i området</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -892,22 +907,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Åke Sköld</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043031</v>
+        <v>112042940</v>
       </c>
       <c r="B4" t="n">
-        <v>90480</v>
+        <v>98980</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +935,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -945,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>511625</v>
+        <v>511611</v>
       </c>
       <c r="R4" t="n">
-        <v>6733616</v>
+        <v>6733626</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -980,7 +995,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -990,7 +1005,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1010,17 +1030,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Evalena Sköld, Åke Sköld</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112042940</v>
+        <v>112042452</v>
       </c>
       <c r="B5" t="n">
-        <v>98980</v>
+        <v>56430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,42 +1049,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Stor-Moberg (Stor-Moberg), Dlr</t>
+          <t>Stor Mpmerg, Kilen-Stor, Moberg, Leksand, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>511611</v>
+        <v>511614</v>
       </c>
       <c r="R5" t="n">
-        <v>6733626</v>
+        <v>6733640</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1091,24 +1111,9 @@
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Fullt med blåsippsblad på denna sidan bäcken</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1123,22 +1128,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Evalena Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Åke Sköld</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112043158</v>
+        <v>112043031</v>
       </c>
       <c r="B6" t="n">
-        <v>95701</v>
+        <v>90480</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1151,21 +1156,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221945</v>
+        <v>4769</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1181,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>511628</v>
+        <v>511625</v>
       </c>
       <c r="R6" t="n">
-        <v>6733623</v>
+        <v>6733616</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1211,7 +1216,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1221,12 +1226,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:51</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Finns fläckvis i området</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Evalena Sköld, Åke Sköld</t>
+          <t>Evalena Sköld</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
